--- a/calendario_chiusure_2024_2025.xlsx
+++ b/calendario_chiusure_2024_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcello_galimberti/Documents/Marcello Galimberti/ADI business consulting/Offerte 2023/Ducati 2023/ASC/Simulazione/2024 scheduling and sequencing/Scheduling linea MTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E1F54-E01B-BC4F-AEDC-A0FB99B9A97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911907A-BFC7-C742-BDB7-74AC659E7E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16960" yWindow="760" windowWidth="17600" windowHeight="21580" xr2:uid="{4C615471-511D-4243-AD2B-A45D8D8873A2}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62458C52-4B88-6947-B8BC-08FB20DD1CF5}">
-  <dimension ref="A1:A267"/>
+  <dimension ref="A1:A266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -560,388 +560,386 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45539</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45565</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45566</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45567</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45568</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45569</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45572</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45573</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45597</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45635</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45649</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45650</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45651</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45652</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45653</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45656</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45657</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45658</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45659</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45660</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45663</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45664</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45768</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45772</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45778</v>
+        <v>45779</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45779</v>
+        <v>45810</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45810</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45870</v>
+        <v>45873</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45873</v>
+        <v>45874</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45874</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45875</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45877</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45880</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45888</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45891</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45895</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45896</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45901</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45905</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45929</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45930</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45931</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45932</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45933</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45936</v>
+        <v>45964</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45964</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45965</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45966</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45967</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45968</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45999</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>46013</v>
+        <v>46014</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>46014</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>46015</v>
+        <v>46016</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>46016</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>46017</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>46020</v>
+        <v>46021</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>46021</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>46022</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>46023</v>
+        <v>46024</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>46024</v>
+        <v>46027</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>46027</v>
+        <v>46028</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>46028</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
@@ -1428,9 +1426,6 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
